--- a/mac_var_original.xlsx
+++ b/mac_var_original.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>d_lnCPI</t>
   </si>
@@ -79,12 +79,18 @@
   <si>
     <t>lnM1</t>
   </si>
+  <si>
+    <t>lnCommdoityIndex</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +103,12 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -127,6 +139,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -408,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R208"/>
+  <dimension ref="A1:S208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +432,7 @@
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -474,15 +487,18 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>37257</v>
       </c>
       <c r="F2">
         <v>10.821016</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>2</v>
       </c>
       <c r="K2">
@@ -506,8 +522,12 @@
       <c r="R2">
         <v>10.310953708977644</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="3">
+        <f>LN(R2)</f>
+        <v>2.3332067970463033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>37288</v>
       </c>
@@ -529,7 +549,7 @@
       <c r="I3">
         <v>1.8612586588742097E-2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>1.9</v>
       </c>
       <c r="K3">
@@ -553,8 +573,12 @@
       <c r="R3">
         <v>10.320463010173933</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S66" si="0">LN(R3)</f>
+        <v>2.3341286243739297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>37316</v>
       </c>
@@ -576,7 +600,7 @@
       <c r="I4">
         <v>8.3685793858483404E-2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>1.9</v>
       </c>
       <c r="K4">
@@ -600,8 +624,12 @@
       <c r="R4">
         <v>10.361813279325514</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3381272484778277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>37347</v>
       </c>
@@ -623,7 +651,7 @@
       <c r="I5">
         <v>3.0458000850037692E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>1.9</v>
       </c>
       <c r="K5">
@@ -647,8 +675,12 @@
       <c r="R5">
         <v>10.338954570039165</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3359187585567134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>37377</v>
       </c>
@@ -673,7 +705,7 @@
       <c r="I6">
         <v>2.2098824956522378E-3</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>1.9</v>
       </c>
       <c r="K6">
@@ -697,8 +729,12 @@
       <c r="R6">
         <v>10.342777030429307</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3362884046296348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>37408</v>
       </c>
@@ -723,7 +759,7 @@
       <c r="I7">
         <v>-1.8800671840070393E-2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>1.9</v>
       </c>
       <c r="K7">
@@ -747,8 +783,12 @@
       <c r="R7">
         <v>10.374300775940805</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3393316687555679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>37438</v>
       </c>
@@ -773,7 +813,7 @@
       <c r="I8">
         <v>2.7047129166409611E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>1.9</v>
       </c>
       <c r="K8">
@@ -797,8 +837,12 @@
       <c r="R8">
         <v>10.459284180785275</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f t="shared" si="0"/>
+        <v>2.347490022335724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>37469</v>
       </c>
@@ -823,7 +867,7 @@
       <c r="I9">
         <v>4.8337521642185521E-3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <v>1.9</v>
       </c>
       <c r="K9">
@@ -847,8 +891,12 @@
       <c r="R9">
         <v>10.425206419790246</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3442265679483345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>37500</v>
       </c>
@@ -873,7 +921,7 @@
       <c r="I10">
         <v>3.8456536709661648E-2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <v>1.9</v>
       </c>
       <c r="K10">
@@ -897,8 +945,12 @@
       <c r="R10">
         <v>10.405510220782553</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3423354947589412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>37530</v>
       </c>
@@ -923,7 +975,7 @@
       <c r="I11">
         <v>1.9963193699247483E-2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <v>3</v>
       </c>
       <c r="K11">
@@ -947,8 +999,12 @@
       <c r="R11">
         <v>10.399396602251397</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3417477854498703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>37561</v>
       </c>
@@ -973,7 +1029,7 @@
       <c r="I12">
         <v>-3.4592162340281618E-2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <v>3</v>
       </c>
       <c r="K12">
@@ -997,8 +1053,12 @@
       <c r="R12">
         <v>10.398316532665776</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3416439211856037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>37591</v>
       </c>
@@ -1023,7 +1083,7 @@
       <c r="I13">
         <v>5.5526615403808322E-2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <v>3</v>
       </c>
       <c r="K13">
@@ -1047,8 +1107,12 @@
       <c r="R13">
         <v>10.464739019076784</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3480114171327933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -1073,7 +1137,7 @@
       <c r="I14">
         <v>6.283645123111814E-2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>3</v>
       </c>
       <c r="K14">
@@ -1100,8 +1164,12 @@
       <c r="R14">
         <v>10.399981344456952</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.341804012343502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>37653</v>
       </c>
@@ -1129,7 +1197,7 @@
       <c r="I15">
         <v>7.517483461614205E-2</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <v>3</v>
       </c>
       <c r="K15">
@@ -1156,8 +1224,12 @@
       <c r="R15">
         <v>10.409022233155659</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3426729524860561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>37681</v>
       </c>
@@ -1185,7 +1257,7 @@
       <c r="I16">
         <v>-6.5628228001894939E-2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <v>3</v>
       </c>
       <c r="K16">
@@ -1212,8 +1284,12 @@
       <c r="R16">
         <v>10.421108570006444</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3438334193425892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>37712</v>
       </c>
@@ -1241,7 +1317,7 @@
       <c r="I17">
         <v>-6.2808838416280821E-2</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <v>3</v>
       </c>
       <c r="K17">
@@ -1268,8 +1344,12 @@
       <c r="R17">
         <v>10.429914384041529</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3446780603540169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>37742</v>
       </c>
@@ -1297,7 +1377,7 @@
       <c r="I18">
         <v>1.7961904684947072E-2</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <v>3</v>
       </c>
       <c r="K18">
@@ -1324,8 +1404,12 @@
       <c r="R18">
         <v>10.419123360952032</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3436429023591896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>37773</v>
       </c>
@@ -1353,7 +1437,7 @@
       <c r="I19">
         <v>1.9779519237036247E-2</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <v>3</v>
       </c>
       <c r="K19">
@@ -1380,8 +1464,12 @@
       <c r="R19">
         <v>10.430341012205819</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3447189637999473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>37803</v>
       </c>
@@ -1409,7 +1497,7 @@
       <c r="I20">
         <v>-1.5879120071171648E-2</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
         <v>2.75</v>
       </c>
       <c r="K20">
@@ -1436,8 +1524,12 @@
       <c r="R20">
         <v>10.501333567816118</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3515022555575182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>37834</v>
       </c>
@@ -1465,7 +1557,7 @@
       <c r="I21">
         <v>1.7825286366491611E-2</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <v>2.25</v>
       </c>
       <c r="K21">
@@ -1492,8 +1584,12 @@
       <c r="R21">
         <v>10.480958190287449</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3495601050843344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>37865</v>
       </c>
@@ -1521,7 +1617,7 @@
       <c r="I22">
         <v>1.294541018523887E-4</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="4">
         <v>2</v>
       </c>
       <c r="K22">
@@ -1548,8 +1644,12 @@
       <c r="R22">
         <v>10.466525165858004</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3481820849691721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>37895</v>
       </c>
@@ -1577,7 +1677,7 @@
       <c r="I23">
         <v>4.4803463600539217E-2</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <v>2</v>
       </c>
       <c r="K23">
@@ -1604,8 +1704,12 @@
       <c r="R23">
         <v>10.483991400153476</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3498494651778663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>37926</v>
       </c>
@@ -1633,7 +1737,7 @@
       <c r="I24">
         <v>-8.0820002279669012E-4</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="4">
         <v>1.75</v>
       </c>
       <c r="K24">
@@ -1660,8 +1764,12 @@
       <c r="R24">
         <v>10.488673227182757</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3502959346361103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>37956</v>
       </c>
@@ -1689,7 +1797,7 @@
       <c r="I25">
         <v>4.5586083234786301E-2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
         <v>1.75</v>
       </c>
       <c r="K25">
@@ -1716,8 +1824,12 @@
       <c r="R25">
         <v>10.56270569797376</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3573294668580491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>37987</v>
       </c>
@@ -1745,7 +1857,7 @@
       <c r="I26">
         <v>3.5761804431572841E-2</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="4">
         <v>1.75</v>
       </c>
       <c r="K26">
@@ -1772,8 +1884,12 @@
       <c r="R26">
         <v>10.545083778411696</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3556597587461856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>38018</v>
       </c>
@@ -1801,7 +1917,7 @@
       <c r="I27">
         <v>-3.4770897444378335E-3</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <v>1.75</v>
       </c>
       <c r="K27">
@@ -1828,8 +1944,12 @@
       <c r="R27">
         <v>10.54844508609261</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3559784638553172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>38047</v>
       </c>
@@ -1857,7 +1977,7 @@
       <c r="I28">
         <v>3.723574583545286E-2</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="4">
         <v>1.75</v>
       </c>
       <c r="K28">
@@ -1884,8 +2004,12 @@
       <c r="R28">
         <v>10.579320026843135</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3589011546902072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>38078</v>
       </c>
@@ -1913,7 +2037,7 @@
       <c r="I29">
         <v>1.2990531159425167E-2</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
         <v>1.75</v>
       </c>
       <c r="K29">
@@ -1940,8 +2064,12 @@
       <c r="R29">
         <v>10.592643536858196</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="3">
+        <f t="shared" si="0"/>
+        <v>2.360159754227634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>38108</v>
       </c>
@@ -1969,7 +2097,7 @@
       <c r="I30">
         <v>4.011571779408829E-2</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="4">
         <v>1.75</v>
       </c>
       <c r="K30">
@@ -1996,8 +2124,12 @@
       <c r="R30">
         <v>10.60479125459918</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3613059041453317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>38139</v>
       </c>
@@ -2025,7 +2157,7 @@
       <c r="I31">
         <v>-1.9365943765917493E-2</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="4">
         <v>1.75</v>
       </c>
       <c r="K31">
@@ -2052,8 +2184,12 @@
       <c r="R31">
         <v>10.608802865926144</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3616841155273343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>38169</v>
       </c>
@@ -2081,7 +2217,7 @@
       <c r="I32">
         <v>1.6250542061609252E-2</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="4">
         <v>1.75</v>
       </c>
       <c r="K32">
@@ -2108,8 +2244,12 @@
       <c r="R32">
         <v>10.655039387430644</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3660329621585432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>38200</v>
       </c>
@@ -2137,7 +2277,7 @@
       <c r="I33">
         <v>1.6221843706662575E-2</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="4">
         <v>2</v>
       </c>
       <c r="K33">
@@ -2164,8 +2304,12 @@
       <c r="R33">
         <v>10.643060743951292</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3649081064513666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>38231</v>
       </c>
@@ -2193,7 +2337,7 @@
       <c r="I34">
         <v>-4.5176979831804687E-3</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="4">
         <v>2</v>
       </c>
       <c r="K34">
@@ -2220,8 +2364,12 @@
       <c r="R34">
         <v>10.66422986301057</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3668951376901033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>38261</v>
       </c>
@@ -2249,7 +2397,7 @@
       <c r="I35">
         <v>6.9240539907813314E-2</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="4">
         <v>2.25</v>
       </c>
       <c r="K35">
@@ -2276,8 +2424,12 @@
       <c r="R35">
         <v>10.732700665197594</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3732952179087241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>38292</v>
       </c>
@@ -2305,7 +2457,7 @@
       <c r="I36">
         <v>-3.1222786442042683E-2</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="4">
         <v>2.25</v>
       </c>
       <c r="K36">
@@ -2332,8 +2484,12 @@
       <c r="R36">
         <v>10.758697205090471</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3757144698093322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>38322</v>
       </c>
@@ -2361,7 +2517,7 @@
       <c r="I37">
         <v>-1.3797453768874313E-2</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="4">
         <v>2.25</v>
       </c>
       <c r="K37">
@@ -2388,8 +2544,12 @@
       <c r="R37">
         <v>10.837109974237634</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3829763529227375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>38353</v>
       </c>
@@ -2417,7 +2577,7 @@
       <c r="I38">
         <v>3.5555889217855352E-2</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="4">
         <v>2.25</v>
       </c>
       <c r="K38">
@@ -2444,8 +2604,12 @@
       <c r="R38">
         <v>10.811775599939557</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3806358734762476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38384</v>
       </c>
@@ -2473,7 +2637,7 @@
       <c r="I39">
         <v>2.3531999670288961E-2</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="4">
         <v>2.25</v>
       </c>
       <c r="K39">
@@ -2500,8 +2664,12 @@
       <c r="R39">
         <v>10.849563765851361</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3841248732658724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38412</v>
       </c>
@@ -2529,7 +2697,7 @@
       <c r="I40">
         <v>7.6147050472397559E-2</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="4">
         <v>2.25</v>
       </c>
       <c r="K40">
@@ -2556,8 +2724,12 @@
       <c r="R40">
         <v>10.8829169225437</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3871943049940501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38443</v>
       </c>
@@ -2585,7 +2757,7 @@
       <c r="I41">
         <v>-4.0272411534152397E-3</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="4">
         <v>2.25</v>
       </c>
       <c r="K41">
@@ -2612,8 +2784,12 @@
       <c r="R41">
         <v>10.88465580059504</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3873540727437348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>38473</v>
       </c>
@@ -2641,7 +2817,7 @@
       <c r="I42">
         <v>-2.6799398988832657E-2</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="4">
         <v>2.25</v>
       </c>
       <c r="K42">
@@ -2668,8 +2844,12 @@
       <c r="R42">
         <v>10.885770423982475</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3874564706827472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38504</v>
       </c>
@@ -2697,7 +2877,7 @@
       <c r="I43">
         <v>4.1854350197410461E-2</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="4">
         <v>2.25</v>
       </c>
       <c r="K43">
@@ -2724,8 +2904,12 @@
       <c r="R43">
         <v>10.90210904745374</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3889562611102941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>38534</v>
       </c>
@@ -2753,7 +2937,7 @@
       <c r="I44">
         <v>2.4672510080756993E-2</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="4">
         <v>2.25</v>
       </c>
       <c r="K44">
@@ -2780,8 +2964,12 @@
       <c r="R44">
         <v>10.980911366919569</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3961584350885627</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>38565</v>
       </c>
@@ -2809,7 +2997,7 @@
       <c r="I45">
         <v>5.8302905502666924E-2</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="4">
         <v>2.25</v>
       </c>
       <c r="K45">
@@ -2836,8 +3024,12 @@
       <c r="R45">
         <v>10.970367510927744</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3951977751779143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>38596</v>
       </c>
@@ -2865,7 +3057,7 @@
       <c r="I46">
         <v>3.6531358856926488E-2</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="4">
         <v>2.25</v>
       </c>
       <c r="K46">
@@ -2892,8 +3084,12 @@
       <c r="R46">
         <v>10.973734291621486</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3955046258068853</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>38626</v>
       </c>
@@ -2921,7 +3117,7 @@
       <c r="I47">
         <v>-4.129352730132041E-3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="4">
         <v>2.25</v>
       </c>
       <c r="K47">
@@ -2948,8 +3144,12 @@
       <c r="R47">
         <v>10.989348183768396</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3969264567174444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>38657</v>
       </c>
@@ -2977,7 +3177,7 @@
       <c r="I48">
         <v>-5.6984189717623757E-2</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="4">
         <v>2.25</v>
       </c>
       <c r="K48">
@@ -3004,8 +3204,12 @@
       <c r="R48">
         <v>11.017083813387561</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3994471419705947</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>38687</v>
       </c>
@@ -3033,7 +3237,7 @@
       <c r="I49">
         <v>4.7622698649310458E-2</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="4">
         <v>2.5</v>
       </c>
       <c r="K49">
@@ -3060,8 +3264,12 @@
       <c r="R49">
         <v>11.105918157643936</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4074781335903843</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>38718</v>
       </c>
@@ -3089,7 +3297,7 @@
       <c r="I50">
         <v>1.6407417644311195E-2</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="4">
         <v>2.75</v>
       </c>
       <c r="K50">
@@ -3116,8 +3324,12 @@
       <c r="R50">
         <v>11.045457084575522</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4020192198614714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>38749</v>
       </c>
@@ -3145,7 +3357,7 @@
       <c r="I51">
         <v>-1.6713882594380891E-2</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="4">
         <v>3</v>
       </c>
       <c r="K51">
@@ -3172,8 +3384,12 @@
       <c r="R51">
         <v>11.056884809811205</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4030532936540681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>38777</v>
       </c>
@@ -3201,7 +3417,7 @@
       <c r="I52">
         <v>6.4431297055191905E-3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="4">
         <v>3.25</v>
       </c>
       <c r="K52">
@@ -3228,8 +3444,12 @@
       <c r="R52">
         <v>11.077174637832517</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4048866522164674</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>38808</v>
       </c>
@@ -3257,7 +3477,7 @@
       <c r="I53">
         <v>7.9299375662635896E-2</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="4">
         <v>3.5</v>
       </c>
       <c r="K53">
@@ -3284,8 +3504,12 @@
       <c r="R53">
         <v>11.040390959597651</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4015604532289574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>38838</v>
       </c>
@@ -3313,7 +3537,7 @@
       <c r="I54">
         <v>3.5322331813545382E-2</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="4">
         <v>3.75</v>
       </c>
       <c r="K54">
@@ -3340,8 +3564,12 @@
       <c r="R54">
         <v>11.031757760766508</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="3">
+        <f t="shared" si="0"/>
+        <v>2.400778182378867</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>38869</v>
       </c>
@@ -3369,7 +3597,7 @@
       <c r="I55">
         <v>-2.2681602432371051E-2</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="4">
         <v>3.75</v>
       </c>
       <c r="K55">
@@ -3396,8 +3624,12 @@
       <c r="R55">
         <v>11.051789516216273</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="3">
+        <f t="shared" si="0"/>
+        <v>2.402592362020628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>38899</v>
       </c>
@@ -3425,7 +3657,7 @@
       <c r="I56">
         <v>3.7266430422119967E-2</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="4">
         <v>3.75</v>
       </c>
       <c r="K56">
@@ -3452,8 +3684,12 @@
       <c r="R56">
         <v>11.092468532089359</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4062663674031994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>38930</v>
       </c>
@@ -3481,7 +3717,7 @@
       <c r="I57">
         <v>5.4431008906723477E-3</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="4">
         <v>3.75</v>
       </c>
       <c r="K57">
@@ -3508,8 +3744,12 @@
       <c r="R57">
         <v>11.089552996087308</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4060034936146097</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>38961</v>
       </c>
@@ -3537,7 +3777,7 @@
       <c r="I58">
         <v>-8.2650628386094382E-2</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="4">
         <v>3.75</v>
       </c>
       <c r="K58">
@@ -3564,8 +3804,12 @@
       <c r="R58">
         <v>11.100648537892704</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4070035334486879</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>38991</v>
       </c>
@@ -3593,7 +3837,7 @@
       <c r="I59">
         <v>-1.7145506368912322E-2</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="4">
         <v>3.75</v>
       </c>
       <c r="K59">
@@ -3620,8 +3864,12 @@
       <c r="R59">
         <v>11.111538510527678</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4079840738595673</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>39022</v>
       </c>
@@ -3649,7 +3897,7 @@
       <c r="I60">
         <v>2.3358313312419554E-2</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="4">
         <v>3.75</v>
       </c>
       <c r="K60">
@@ -3676,8 +3924,12 @@
       <c r="R60">
         <v>11.160262029817469</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4123594360518537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>39052</v>
       </c>
@@ -3705,7 +3957,7 @@
       <c r="I61">
         <v>1.8315404521391798E-2</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="4">
         <v>3.75</v>
       </c>
       <c r="K61">
@@ -3732,8 +3984,12 @@
       <c r="R61">
         <v>11.269157155552902</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4220695387024938</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>39083</v>
       </c>
@@ -3761,7 +4017,7 @@
       <c r="I62">
         <v>-3.9167220433271588E-2</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="4">
         <v>3.75</v>
       </c>
       <c r="K62">
@@ -3788,8 +4044,12 @@
       <c r="R62">
         <v>11.262070298363961</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4214404688981839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>39114</v>
       </c>
@@ -3817,7 +4077,7 @@
       <c r="I63">
         <v>5.092733322189158E-2</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="4">
         <v>3.75</v>
       </c>
       <c r="K63">
@@ -3844,8 +4104,12 @@
       <c r="R63">
         <v>11.270356282525354</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4221759409082804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>39142</v>
       </c>
@@ -3873,7 +4137,7 @@
       <c r="I64">
         <v>2.3283496957818173E-2</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="4">
         <v>3.75</v>
       </c>
       <c r="K64">
@@ -3900,8 +4164,12 @@
       <c r="R64">
         <v>11.300448792974532</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4248424411220642</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>39173</v>
       </c>
@@ -3929,7 +4197,7 @@
       <c r="I65">
         <v>5.5679172762678419E-2</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="4">
         <v>3.75</v>
       </c>
       <c r="K65">
@@ -3956,8 +4224,12 @@
       <c r="R65">
         <v>11.290070542898592</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4239236264058759</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>39203</v>
       </c>
@@ -3985,7 +4257,7 @@
       <c r="I66">
         <v>3.0981821188991177E-3</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="4">
         <v>3.75</v>
       </c>
       <c r="K66">
@@ -4012,8 +4284,12 @@
       <c r="R66">
         <v>11.302743488190421</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4250454828159302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>39234</v>
       </c>
@@ -4041,7 +4317,7 @@
       <c r="I67">
         <v>3.0244778083758916E-3</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="4">
         <v>3.75</v>
       </c>
       <c r="K67">
@@ -4068,8 +4344,12 @@
       <c r="R67">
         <v>11.336547655206916</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="3">
+        <f t="shared" ref="S67:S130" si="1">LN(R67)</f>
+        <v>2.4280318123723608</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>39264</v>
       </c>
@@ -4097,7 +4377,7 @@
       <c r="I68">
         <v>1.9218047401042604E-2</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="4">
         <v>4</v>
       </c>
       <c r="K68">
@@ -4124,8 +4404,12 @@
       <c r="R68">
         <v>11.383214421122823</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4321398511262937</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>39295</v>
       </c>
@@ -4153,7 +4437,7 @@
       <c r="I69">
         <v>-3.3068571859249829E-2</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="4">
         <v>4</v>
       </c>
       <c r="K69">
@@ -4180,8 +4464,12 @@
       <c r="R69">
         <v>11.392292769324378</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4329370538938493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>39326</v>
       </c>
@@ -4209,7 +4497,7 @@
       <c r="I70">
         <v>4.8783715783367931E-2</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="4">
         <v>4.25</v>
       </c>
       <c r="K70">
@@ -4236,8 +4524,12 @@
       <c r="R70">
         <v>11.389604502145316</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4327010536029601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>39356</v>
       </c>
@@ -4265,7 +4557,7 @@
       <c r="I71">
         <v>5.6217809991927048E-2</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="4">
         <v>4.25</v>
       </c>
       <c r="K71">
@@ -4292,8 +4584,12 @@
       <c r="R71">
         <v>11.442690690183367</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4373511584872771</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>39387</v>
       </c>
@@ -4321,7 +4617,7 @@
       <c r="I72">
         <v>5.8201486801816138E-2</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="4">
         <v>4.25</v>
       </c>
       <c r="K72">
@@ -4348,8 +4644,12 @@
       <c r="R72">
         <v>11.491654103028379</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4416210417281388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>39417</v>
       </c>
@@ -4377,7 +4677,7 @@
       <c r="I73">
         <v>2.7177393174149245E-5</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="4">
         <v>4.25</v>
       </c>
       <c r="K73">
@@ -4404,8 +4704,12 @@
       <c r="R73">
         <v>11.557804890847029</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4473609568781267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>39448</v>
       </c>
@@ -4433,7 +4737,7 @@
       <c r="I74">
         <v>4.5217433878216085E-2</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="4">
         <v>4.5</v>
       </c>
       <c r="K74">
@@ -4460,8 +4764,12 @@
       <c r="R74">
         <v>11.569071197222334</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4483352611657989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>39479</v>
       </c>
@@ -4489,7 +4797,7 @@
       <c r="I75">
         <v>4.3715226369653415E-2</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="4">
         <v>4.5</v>
       </c>
       <c r="K75">
@@ -4516,8 +4824,12 @@
       <c r="R75">
         <v>11.633033963919697</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4538488064486685</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>39508</v>
       </c>
@@ -4545,7 +4857,7 @@
       <c r="I76">
         <v>6.0376647759880164E-2</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="4">
         <v>4.5</v>
       </c>
       <c r="K76">
@@ -4572,8 +4884,12 @@
       <c r="R76">
         <v>11.678938697978277</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4577871083724956</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>39539</v>
       </c>
@@ -4601,7 +4917,7 @@
       <c r="I77">
         <v>3.6738566638535808E-2</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="4">
         <v>4.75</v>
       </c>
       <c r="K77">
@@ -4628,8 +4944,12 @@
       <c r="R77">
         <v>11.715631321081878</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4609239604848594</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>39569</v>
       </c>
@@ -4657,7 +4977,7 @@
       <c r="I78">
         <v>6.5424152471234898E-2</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="4">
         <v>4.75</v>
       </c>
       <c r="K78">
@@ -4684,8 +5004,12 @@
       <c r="R78">
         <v>11.727117608687024</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4619039043095992</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>39600</v>
       </c>
@@ -4713,7 +5037,7 @@
       <c r="I79">
         <v>4.9203771475253788E-2</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="4">
         <v>5</v>
       </c>
       <c r="K79">
@@ -4740,8 +5064,12 @@
       <c r="R79">
         <v>11.741694452064824</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79" s="3">
+        <f t="shared" si="1"/>
+        <v>2.463146135506864</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>39630</v>
       </c>
@@ -4769,7 +5097,7 @@
       <c r="I80">
         <v>1.5897993198636051E-2</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="4">
         <v>5.25</v>
       </c>
       <c r="K80">
@@ -4796,8 +5124,12 @@
       <c r="R80">
         <v>11.757800073943347</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4645168564287463</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>39661</v>
       </c>
@@ -4825,7 +5157,7 @@
       <c r="I81">
         <v>-0.11330824122192862</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="4">
         <v>5.5</v>
       </c>
       <c r="K81">
@@ -4852,8 +5184,12 @@
       <c r="R81">
         <v>11.765622356033393</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4651819197205911</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>39692</v>
       </c>
@@ -4881,7 +5217,7 @@
       <c r="I82">
         <v>-8.7753905353962658E-2</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="4">
         <v>5.75</v>
       </c>
       <c r="K82">
@@ -4908,8 +5244,12 @@
       <c r="R82">
         <v>11.757489478509065</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4644904399618253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>39722</v>
       </c>
@@ -4937,7 +5277,7 @@
       <c r="I83">
         <v>-0.20099382237324814</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="4">
         <v>5.75</v>
       </c>
       <c r="K83">
@@ -4964,8 +5304,12 @@
       <c r="R83">
         <v>11.759146253365362</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83" s="3">
+        <f t="shared" si="1"/>
+        <v>2.464631342332209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>39753</v>
       </c>
@@ -4993,7 +5337,7 @@
       <c r="I84">
         <v>-0.16414631926896739</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="4">
         <v>5.75</v>
       </c>
       <c r="K84">
@@ -5020,8 +5364,12 @@
       <c r="R84">
         <v>11.759070758238426</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4646249221918644</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>39783</v>
       </c>
@@ -5049,7 +5397,7 @@
       <c r="I85">
         <v>-0.11543133333902666</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="4">
         <v>5.75</v>
       </c>
       <c r="K85">
@@ -5076,8 +5424,12 @@
       <c r="R85">
         <v>11.786779381994876</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4669785120076622</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>39814</v>
       </c>
@@ -5105,7 +5457,7 @@
       <c r="I86">
         <v>2.8309318102906822E-2</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="4">
         <v>5.75</v>
       </c>
       <c r="K86">
@@ -5132,8 +5484,12 @@
       <c r="R86">
         <v>11.751629825565859</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86" s="3">
+        <f t="shared" si="1"/>
+        <v>2.463991939529822</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>39845</v>
       </c>
@@ -5161,7 +5517,7 @@
       <c r="I87">
         <v>-3.6044360088941296E-2</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="4">
         <v>5.5</v>
       </c>
       <c r="K87">
@@ -5188,8 +5544,12 @@
       <c r="R87">
         <v>11.767000218521137</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4652990220524669</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>39873</v>
       </c>
@@ -5217,7 +5577,7 @@
       <c r="I88">
         <v>-1.8606085254191385E-4</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="4">
         <v>5.25</v>
       </c>
       <c r="K88">
@@ -5244,8 +5604,12 @@
       <c r="R88">
         <v>11.760444739771248</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4647417597631573</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>39904</v>
       </c>
@@ -5273,7 +5637,7 @@
       <c r="I89">
         <v>2.1860673788278717E-2</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="4">
         <v>4.25</v>
       </c>
       <c r="K89">
@@ -5300,8 +5664,12 @@
       <c r="R89">
         <v>11.743193211776486</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89" s="3">
+        <f t="shared" si="1"/>
+        <v>2.463273771605035</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>39934</v>
       </c>
@@ -5329,7 +5697,7 @@
       <c r="I90">
         <v>7.8674449613537867E-2</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="4">
         <v>3.2</v>
       </c>
       <c r="K90">
@@ -5356,8 +5724,12 @@
       <c r="R90">
         <v>11.756859859150415</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4644368880348924</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>39965</v>
       </c>
@@ -5385,7 +5757,7 @@
       <c r="I91">
         <v>7.7549012965980602E-2</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="K91">
@@ -5412,8 +5784,12 @@
       <c r="R91">
         <v>11.774246711298749</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4659146642933467</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>39995</v>
       </c>
@@ -5441,7 +5817,7 @@
       <c r="I92">
         <v>-3.7379837557085516E-2</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="4">
         <v>1.2</v>
       </c>
       <c r="K92">
@@ -5468,8 +5844,12 @@
       <c r="R92">
         <v>11.8159563197209</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92" s="3">
+        <f t="shared" si="1"/>
+        <v>2.469450848516161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>40026</v>
       </c>
@@ -5497,7 +5877,7 @@
       <c r="I93">
         <v>5.4856791814182237E-2</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="4">
         <v>0.45</v>
       </c>
       <c r="K93">
@@ -5524,8 +5904,12 @@
       <c r="R93">
         <v>11.812438928797723</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4691531227576262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>40057</v>
       </c>
@@ -5553,7 +5937,7 @@
       <c r="I94">
         <v>-2.951963175447947E-2</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="4">
         <v>0.45</v>
       </c>
       <c r="K94">
@@ -5580,8 +5964,12 @@
       <c r="R94">
         <v>11.809798045663273</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4689295297805254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>40087</v>
       </c>
@@ -5609,7 +5997,7 @@
       <c r="I95">
         <v>5.9877825491318148E-2</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="4">
         <v>0.45</v>
       </c>
       <c r="K95">
@@ -5636,8 +6024,12 @@
       <c r="R95">
         <v>11.831984685484874</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95" s="3">
+        <f t="shared" si="1"/>
+        <v>2.470806431077444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>40118</v>
       </c>
@@ -5665,7 +6057,7 @@
       <c r="I96">
         <v>3.7048105043067991E-2</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="4">
         <v>0.45</v>
       </c>
       <c r="K96">
@@ -5692,8 +6084,12 @@
       <c r="R96">
         <v>11.859900070001402</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4731629677331886</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>40148</v>
       </c>
@@ -5721,7 +6117,7 @@
       <c r="I97">
         <v>1.93097316643982E-2</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97" s="4">
         <v>0.45</v>
       </c>
       <c r="K97">
@@ -5748,8 +6144,12 @@
       <c r="R97">
         <v>11.917658508331039</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S97" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4780212084766995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>40179</v>
       </c>
@@ -5777,7 +6177,7 @@
       <c r="I98">
         <v>4.1914668088905316E-2</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="4">
         <v>0.45</v>
       </c>
       <c r="K98">
@@ -5804,8 +6204,12 @@
       <c r="R98">
         <v>11.915312862047564</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S98" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4778243680362362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>40210</v>
       </c>
@@ -5833,7 +6237,7 @@
       <c r="I99">
         <v>-2.3390990845995496E-2</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="4">
         <v>0.45</v>
       </c>
       <c r="K99">
@@ -5860,8 +6264,12 @@
       <c r="R99">
         <v>11.931388613714654</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4791726261270783</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>40238</v>
       </c>
@@ -5889,7 +6297,7 @@
       <c r="I100">
         <v>3.2827861134047787E-2</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="4">
         <v>0.45</v>
       </c>
       <c r="K100">
@@ -5916,8 +6324,12 @@
       <c r="R100">
         <v>11.963390778985522</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4818512182897567</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>40269</v>
       </c>
@@ -5945,7 +6357,7 @@
       <c r="I101">
         <v>5.3885608645562577E-2</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="4">
         <v>0.45</v>
       </c>
       <c r="K101">
@@ -5972,8 +6384,12 @@
       <c r="R101">
         <v>11.964718895623157</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4819622271957722</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>40299</v>
       </c>
@@ -6001,7 +6417,7 @@
       <c r="I102">
         <v>-5.8857227228607201E-2</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="4">
         <v>0.7</v>
       </c>
       <c r="K102">
@@ -6028,8 +6444,12 @@
       <c r="R102">
         <v>11.984420025625164</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S102" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4836074750279198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>40330</v>
       </c>
@@ -6057,7 +6477,7 @@
       <c r="I103">
         <v>-2.1447320159970751E-2</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103" s="4">
         <v>0.95</v>
       </c>
       <c r="K103">
@@ -6084,8 +6504,12 @@
       <c r="R103">
         <v>12.001355736823379</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S103" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4850196214750739</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>40360</v>
       </c>
@@ -6113,7 +6537,7 @@
       <c r="I104">
         <v>1.264572162911648E-3</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="4">
         <v>1.2</v>
       </c>
       <c r="K104">
@@ -6140,8 +6564,12 @@
       <c r="R104">
         <v>12.032146645863783</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S104" s="3">
+        <f t="shared" si="1"/>
+        <v>2.48758195512056</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>40391</v>
       </c>
@@ -6169,7 +6597,7 @@
       <c r="I105">
         <v>2.7296127955337646E-2</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105" s="4">
         <v>1.7</v>
       </c>
       <c r="K105">
@@ -6196,8 +6624,12 @@
       <c r="R105">
         <v>12.058893698321249</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S105" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4898024539504391</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>40422</v>
       </c>
@@ -6225,7 +6657,7 @@
       <c r="I106">
         <v>1.8129582352751861E-2</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="K106">
@@ -6252,8 +6684,12 @@
       <c r="R106">
         <v>12.061302858319937</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S106" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4900022168338838</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>40452</v>
       </c>
@@ -6281,7 +6717,7 @@
       <c r="I107">
         <v>5.2647659039923411E-2</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="K107">
@@ -6308,8 +6744,12 @@
       <c r="R107">
         <v>12.085126443473692</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S107" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4919754769450382</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>40483</v>
       </c>
@@ -6337,7 +6777,7 @@
       <c r="I108">
         <v>3.3906195313717191E-2</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="K108">
@@ -6364,8 +6804,12 @@
       <c r="R108">
         <v>12.117008016781108</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S108" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4946100868635193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>40513</v>
       </c>
@@ -6393,7 +6837,7 @@
       <c r="I109">
         <v>5.5196815450655912E-2</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="K109">
@@ -6420,8 +6864,12 @@
       <c r="R109">
         <v>12.180049969512975</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4997993648606074</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>40544</v>
       </c>
@@ -6449,7 +6897,7 @@
       <c r="I110">
         <v>3.5985306299099129E-2</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="4">
         <v>2.4500000000000002</v>
       </c>
       <c r="K110">
@@ -6476,8 +6924,12 @@
       <c r="R110">
         <v>12.161486021070429</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4982740747516492</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>40575</v>
       </c>
@@ -6505,7 +6957,7 @@
       <c r="I111">
         <v>3.6931282567061352E-2</v>
       </c>
-      <c r="J111" s="3">
+      <c r="J111" s="4">
         <v>2.7</v>
       </c>
       <c r="K111">
@@ -6532,8 +6984,12 @@
       <c r="R111">
         <v>12.169166630803135</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S111" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4989054273172977</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>40603</v>
       </c>
@@ -6561,7 +7017,7 @@
       <c r="I112">
         <v>3.2485651141390015E-2</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112" s="4">
         <v>2.95</v>
       </c>
       <c r="K112">
@@ -6588,8 +7044,12 @@
       <c r="R112">
         <v>12.190823466240378</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S112" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5006834938154103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>40634</v>
       </c>
@@ -6617,7 +7077,7 @@
       <c r="I113">
         <v>4.9152063706925375E-2</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113" s="4">
         <v>3.2</v>
       </c>
       <c r="K113">
@@ -6644,8 +7104,12 @@
       <c r="R113">
         <v>12.17619053262837</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S113" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4994824492088208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>40664</v>
       </c>
@@ -6673,7 +7137,7 @@
       <c r="I114">
         <v>-3.7015886436358336E-2</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="4">
         <v>3.45</v>
       </c>
       <c r="K114">
@@ -6700,8 +7164,12 @@
       <c r="R114">
         <v>12.179341292993122</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S114" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4997411797842717</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>40695</v>
       </c>
@@ -6729,7 +7197,7 @@
       <c r="I115">
         <v>-9.5822038098480888E-3</v>
       </c>
-      <c r="J115" s="3">
+      <c r="J115" s="4">
         <v>3.45</v>
       </c>
       <c r="K115">
@@ -6756,8 +7224,12 @@
       <c r="R115">
         <v>12.182954651370004</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S115" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000378150777292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>40725</v>
       </c>
@@ -6785,7 +7257,7 @@
       <c r="I116">
         <v>1.3519283414647809E-2</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="4">
         <v>3.45</v>
       </c>
       <c r="K116">
@@ -6812,8 +7284,12 @@
       <c r="R116">
         <v>12.228908147987781</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S116" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5038026691795796</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>40756</v>
       </c>
@@ -6841,7 +7317,7 @@
       <c r="I117">
         <v>-2.3627051885604544E-2</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117" s="4">
         <v>3.45</v>
       </c>
       <c r="K117">
@@ -6868,8 +7344,12 @@
       <c r="R117">
         <v>12.23509973186305</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S117" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5043088482192428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>40787</v>
       </c>
@@ -6897,7 +7377,7 @@
       <c r="I118">
         <v>-1.1309394520090166E-2</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J118" s="4">
         <v>3.45</v>
       </c>
       <c r="K118">
@@ -6924,8 +7404,12 @@
       <c r="R118">
         <v>12.244010229228685</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S118" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5050368565310928</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>40817</v>
       </c>
@@ -6953,7 +7437,7 @@
       <c r="I119">
         <v>-3.6698466355582049E-2</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J119" s="4">
         <v>3.45</v>
       </c>
       <c r="K119">
@@ -6980,8 +7464,12 @@
       <c r="R119">
         <v>12.252087589612447</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S119" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5056963379502348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>40848</v>
       </c>
@@ -7009,7 +7497,7 @@
       <c r="I120">
         <v>1.3365157811477957E-2</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J120" s="4">
         <v>3.45</v>
       </c>
       <c r="K120">
@@ -7036,8 +7524,12 @@
       <c r="R120">
         <v>12.262972077481653</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5065843218044233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>40878</v>
       </c>
@@ -7065,7 +7557,7 @@
       <c r="I121">
         <v>-1.8448121276864349E-2</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J121" s="4">
         <v>3.45</v>
       </c>
       <c r="K121">
@@ -7092,8 +7584,12 @@
       <c r="R121">
         <v>12.329620728803606</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S121" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5120045566710045</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>40909</v>
       </c>
@@ -7121,7 +7617,7 @@
       <c r="I122">
         <v>1.6164521737701776E-2</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J122" s="4">
         <v>3.45</v>
       </c>
       <c r="K122">
@@ -7148,8 +7644,12 @@
       <c r="R122">
         <v>12.329098589827717</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S122" s="3">
+        <f t="shared" si="1"/>
+        <v>2.511962207433867</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>40940</v>
       </c>
@@ -7177,7 +7677,7 @@
       <c r="I123">
         <v>3.0074587385107598E-2</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J123" s="4">
         <v>3.45</v>
       </c>
       <c r="K123">
@@ -7204,8 +7704,12 @@
       <c r="R123">
         <v>12.34593388147991</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S123" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5133267684964782</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>40969</v>
       </c>
@@ -7233,7 +7737,7 @@
       <c r="I124">
         <v>2.2535417882491693E-2</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J124" s="4">
         <v>3.45</v>
       </c>
       <c r="K124">
@@ -7260,8 +7764,12 @@
       <c r="R124">
         <v>12.368883181442165</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S124" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5151838978856786</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>41000</v>
       </c>
@@ -7289,7 +7797,7 @@
       <c r="I125">
         <v>-1.6366724701427415E-2</v>
       </c>
-      <c r="J125" s="3">
+      <c r="J125" s="4">
         <v>3.45</v>
       </c>
       <c r="K125">
@@ -7316,8 +7824,12 @@
       <c r="R125">
         <v>12.383311131958228</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S125" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5163496896508395</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>41030</v>
       </c>
@@ -7345,7 +7857,7 @@
       <c r="I126">
         <v>-6.0927976834166842E-2</v>
       </c>
-      <c r="J126" s="3">
+      <c r="J126" s="4">
         <v>3.45</v>
       </c>
       <c r="K126">
@@ -7372,8 +7884,12 @@
       <c r="R126">
         <v>12.396233838903429</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S126" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5173927038088415</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>41061</v>
       </c>
@@ -7401,7 +7917,7 @@
       <c r="I127">
         <v>-6.7220298802627809E-2</v>
       </c>
-      <c r="J127" s="3">
+      <c r="J127" s="4">
         <v>3.45</v>
       </c>
       <c r="K127">
@@ -7428,8 +7944,12 @@
       <c r="R127">
         <v>12.395924225248731</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S127" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5173677270678971</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>41091</v>
       </c>
@@ -7457,7 +7977,7 @@
       <c r="I128">
         <v>3.2092750724335595E-2</v>
       </c>
-      <c r="J128" s="3">
+      <c r="J128" s="4">
         <v>3.45</v>
       </c>
       <c r="K128">
@@ -7484,8 +8004,12 @@
       <c r="R128">
         <v>12.412682328372879</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S128" s="3">
+        <f t="shared" si="1"/>
+        <v>2.518718718356892</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>41122</v>
       </c>
@@ -7513,7 +8037,7 @@
       <c r="I129">
         <v>2.7442231587937904E-2</v>
       </c>
-      <c r="J129" s="3">
+      <c r="J129" s="4">
         <v>3.45</v>
       </c>
       <c r="K129">
@@ -7540,8 +8064,12 @@
       <c r="R129">
         <v>12.423330460615132</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S129" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5195761935873286</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>41153</v>
       </c>
@@ -7569,7 +8097,7 @@
       <c r="I130">
         <v>9.9958336436625217E-3</v>
       </c>
-      <c r="J130" s="3">
+      <c r="J130" s="4">
         <v>3.45</v>
       </c>
       <c r="K130">
@@ -7596,8 +8124,12 @@
       <c r="R130">
         <v>12.438393507893725</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S130" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5207879397350053</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>41183</v>
       </c>
@@ -7625,7 +8157,7 @@
       <c r="I131">
         <v>-9.1008547720115018E-3</v>
       </c>
-      <c r="J131" s="3">
+      <c r="J131" s="4">
         <v>3.45</v>
       </c>
       <c r="K131">
@@ -7652,8 +8184,12 @@
       <c r="R131">
         <v>12.463817033676264</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S131" s="3">
+        <f t="shared" ref="S131:S194" si="2">LN(R131)</f>
+        <v>2.5228298094375483</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>41214</v>
       </c>
@@ -7681,7 +8217,7 @@
       <c r="I132">
         <v>-1.3567241996939039E-2</v>
       </c>
-      <c r="J132" s="3">
+      <c r="J132" s="4">
         <v>3.45</v>
       </c>
       <c r="K132">
@@ -7708,8 +8244,12 @@
       <c r="R132">
         <v>12.483040488155671</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S132" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5243709621272181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>41244</v>
       </c>
@@ -7737,7 +8277,7 @@
       <c r="I133">
         <v>4.8029228652621825E-3</v>
       </c>
-      <c r="J133" s="3">
+      <c r="J133" s="4">
         <v>3.45</v>
       </c>
       <c r="K133">
@@ -7764,8 +8304,12 @@
       <c r="R133">
         <v>12.534343947388113</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S133" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5284723925771</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>41275</v>
       </c>
@@ -7793,7 +8337,7 @@
       <c r="I134">
         <v>2.4201847992619818E-2</v>
       </c>
-      <c r="J134" s="3">
+      <c r="J134" s="4">
         <v>3.45</v>
       </c>
       <c r="K134">
@@ -7820,8 +8364,12 @@
       <c r="R134">
         <v>12.53692560077098</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S134" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5286783377437008</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>41306</v>
       </c>
@@ -7849,7 +8397,7 @@
       <c r="I135">
         <v>8.7788135009407853E-3</v>
       </c>
-      <c r="J135" s="3">
+      <c r="J135" s="4">
         <v>3.45</v>
       </c>
       <c r="K135">
@@ -7876,8 +8424,12 @@
       <c r="R135">
         <v>12.560655020015322</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S135" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5305693109553276</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>41334</v>
       </c>
@@ -7905,7 +8457,7 @@
       <c r="I136">
         <v>-2.6356474974838839E-2</v>
       </c>
-      <c r="J136" s="3">
+      <c r="J136" s="4">
         <v>3.45</v>
       </c>
       <c r="K136">
@@ -7932,8 +8484,12 @@
       <c r="R136">
         <v>12.56741607937297</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S136" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5311074389711279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>41365</v>
       </c>
@@ -7961,7 +8517,7 @@
       <c r="I137">
         <v>-1.9465907449736086E-2</v>
       </c>
-      <c r="J137" s="3">
+      <c r="J137" s="4">
         <v>3.45</v>
       </c>
       <c r="K137">
@@ -7988,8 +8544,12 @@
       <c r="R137">
         <v>12.56884680456074</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S137" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5312212765130031</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>41395</v>
       </c>
@@ -8017,7 +8577,7 @@
       <c r="I138">
         <v>-6.2057025717727754E-3</v>
       </c>
-      <c r="J138" s="3">
+      <c r="J138" s="4">
         <v>3.45</v>
       </c>
       <c r="K138">
@@ -8044,8 +8604,12 @@
       <c r="R138">
         <v>12.575123111663824</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S138" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5317205061298336</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>41426</v>
       </c>
@@ -8073,7 +8637,7 @@
       <c r="I139">
         <v>-1.4278727820604686E-2</v>
       </c>
-      <c r="J139" s="3">
+      <c r="J139" s="4">
         <v>3.45</v>
       </c>
       <c r="K139">
@@ -8100,8 +8664,12 @@
       <c r="R139">
         <v>12.578029104997183</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S139" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5319515700792947</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>41456</v>
       </c>
@@ -8129,7 +8697,7 @@
       <c r="I140">
         <v>1.3056362813642863E-2</v>
       </c>
-      <c r="J140" s="3">
+      <c r="J140" s="4">
         <v>3.45</v>
       </c>
       <c r="K140">
@@ -8156,8 +8724,12 @@
       <c r="R140">
         <v>12.602459120754144</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S140" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5338919632283954</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>41487</v>
       </c>
@@ -8185,7 +8757,7 @@
       <c r="I141">
         <v>1.5693642617898185E-2</v>
       </c>
-      <c r="J141" s="3">
+      <c r="J141" s="4">
         <v>3.45</v>
       </c>
       <c r="K141">
@@ -8212,8 +8784,12 @@
       <c r="R141">
         <v>12.591973247253124</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S141" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5330595670899698</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>41518</v>
       </c>
@@ -8241,7 +8817,7 @@
       <c r="I142">
         <v>-3.9213845746060016E-3</v>
       </c>
-      <c r="J142" s="3">
+      <c r="J142" s="4">
         <v>3.45</v>
       </c>
       <c r="K142">
@@ -8268,8 +8844,12 @@
       <c r="R142">
         <v>12.573446101183276</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S142" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5315871378678985</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>41548</v>
       </c>
@@ -8297,7 +8877,7 @@
       <c r="I143">
         <v>-1.6537491013722594E-2</v>
       </c>
-      <c r="J143" s="3">
+      <c r="J143" s="4">
         <v>3.45</v>
       </c>
       <c r="K143">
@@ -8324,8 +8904,12 @@
       <c r="R143">
         <v>12.57956400493171</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S143" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5320735928761278</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>41579</v>
       </c>
@@ -8353,7 +8937,7 @@
       <c r="I144">
         <v>-1.0391989557331449E-2</v>
       </c>
-      <c r="J144" s="3">
+      <c r="J144" s="4">
         <v>3.2</v>
       </c>
       <c r="K144">
@@ -8380,8 +8964,12 @@
       <c r="R144">
         <v>12.593254773600746</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S144" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5331613351857496</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>41609</v>
       </c>
@@ -8409,7 +8997,7 @@
       <c r="I145">
         <v>2.1636348584468834E-2</v>
       </c>
-      <c r="J145" s="3">
+      <c r="J145" s="4">
         <v>3.2</v>
       </c>
       <c r="K145">
@@ -8436,8 +9024,12 @@
       <c r="R145">
         <v>12.641408808496129</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5369778388762763</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>41640</v>
       </c>
@@ -8465,7 +9057,7 @@
       <c r="I146">
         <v>-6.9543096704611784E-3</v>
       </c>
-      <c r="J146" s="3">
+      <c r="J146" s="4">
         <v>3.2</v>
       </c>
       <c r="K146">
@@ -8492,8 +9084,12 @@
       <c r="R146">
         <v>12.627475257655952</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S146" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5358750159565235</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>41671</v>
       </c>
@@ -8521,7 +9117,7 @@
       <c r="I147">
         <v>2.5033971177235159E-2</v>
       </c>
-      <c r="J147" s="3">
+      <c r="J147" s="4">
         <v>3.2</v>
       </c>
       <c r="K147">
@@ -8548,8 +9144,12 @@
       <c r="R147">
         <v>12.629612016820456</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S147" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5360442167156121</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>41699</v>
       </c>
@@ -8577,7 +9177,7 @@
       <c r="I148">
         <v>-6.8293170704292194E-3</v>
       </c>
-      <c r="J148" s="3">
+      <c r="J148" s="4">
         <v>2.8</v>
       </c>
       <c r="K148">
@@ -8604,8 +9204,12 @@
       <c r="R148">
         <v>12.631704377526125</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S148" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5362098740137347</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>41730</v>
       </c>
@@ -8633,7 +9237,7 @@
       <c r="I149">
         <v>7.508300542718338E-3</v>
       </c>
-      <c r="J149" s="3">
+      <c r="J149" s="4">
         <v>2.8</v>
       </c>
       <c r="K149">
@@ -8660,8 +9264,12 @@
       <c r="R149">
         <v>12.626251779832032</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S149" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5357781211240846</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>41760</v>
       </c>
@@ -8689,7 +9297,7 @@
       <c r="I150">
         <v>-1.3379161467795164E-2</v>
       </c>
-      <c r="J150" s="3">
+      <c r="J150" s="4">
         <v>2.8</v>
       </c>
       <c r="K150">
@@ -8716,8 +9324,12 @@
       <c r="R150">
         <v>12.631179972971809</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S150" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5361683582036543</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>41791</v>
       </c>
@@ -8745,7 +9357,7 @@
       <c r="I151">
         <v>2.1883570907812455E-3</v>
       </c>
-      <c r="J151" s="3">
+      <c r="J151" s="4">
         <v>2.8</v>
       </c>
       <c r="K151">
@@ -8772,8 +9384,12 @@
       <c r="R151">
         <v>12.636867217958192</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S151" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5366185113191242</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>41821</v>
       </c>
@@ -8801,7 +9417,7 @@
       <c r="I152">
         <v>-1.9669634402649017E-2</v>
       </c>
-      <c r="J152" s="3">
+      <c r="J152" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="K152">
@@ -8828,8 +9444,12 @@
       <c r="R152">
         <v>12.668373712609192</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S152" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5391086287629849</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>41852</v>
       </c>
@@ -8857,7 +9477,7 @@
       <c r="I153">
         <v>-3.3536580955992434E-2</v>
       </c>
-      <c r="J153" s="3">
+      <c r="J153" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="K153">
@@ -8884,8 +9504,12 @@
       <c r="R153">
         <v>12.674617792829876</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S153" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5396013946107492</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>41883</v>
       </c>
@@ -8913,7 +9537,7 @@
       <c r="I154">
         <v>-3.3526893200320984E-2</v>
       </c>
-      <c r="J154" s="3">
+      <c r="J154" s="4">
         <v>2.2999999999999998</v>
       </c>
       <c r="K154">
@@ -8940,8 +9564,12 @@
       <c r="R154">
         <v>12.673545050629325</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S154" s="3">
+        <f t="shared" si="2"/>
+        <v>2.539516753983512</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>41913</v>
       </c>
@@ -8969,7 +9597,7 @@
       <c r="I155">
         <v>-5.7447463155731349E-2</v>
       </c>
-      <c r="J155" s="3">
+      <c r="J155" s="4">
         <v>2.2999999999999998</v>
       </c>
       <c r="K155">
@@ -8996,8 +9624,12 @@
       <c r="R155">
         <v>12.680286620878675</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S155" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5400485529238521</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>41944</v>
       </c>
@@ -9025,7 +9657,7 @@
       <c r="I156">
         <v>-4.9842619826682366E-2</v>
       </c>
-      <c r="J156" s="3">
+      <c r="J156" s="4">
         <v>2.2999999999999998</v>
       </c>
       <c r="K156">
@@ -9052,8 +9684,12 @@
       <c r="R156">
         <v>12.683879715577156</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S156" s="3">
+        <f t="shared" si="2"/>
+        <v>2.540331873469448</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>41974</v>
       </c>
@@ -9081,7 +9717,7 @@
       <c r="I157">
         <v>-0.1005358002529233</v>
       </c>
-      <c r="J157" s="3">
+      <c r="J157" s="4">
         <v>2.2999999999999998</v>
       </c>
       <c r="K157">
@@ -9108,8 +9744,12 @@
       <c r="R157">
         <v>12.743356515427116</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S157" s="3">
+        <f t="shared" si="2"/>
+        <v>2.545010078193183</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>42005</v>
       </c>
@@ -9137,7 +9777,7 @@
       <c r="I158">
         <v>-9.627506424468546E-2</v>
       </c>
-      <c r="J158" s="3">
+      <c r="J158" s="4">
         <v>2.0499999999999998</v>
       </c>
       <c r="K158">
@@ -9164,8 +9804,12 @@
       <c r="R158">
         <v>12.723795359714362</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S158" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5434738907423462</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>42036</v>
       </c>
@@ -9193,7 +9837,7 @@
       <c r="I159">
         <v>2.8944511959719144E-2</v>
       </c>
-      <c r="J159" s="3">
+      <c r="J159" s="4">
         <v>2.0499999999999998</v>
       </c>
       <c r="K159">
@@ -9220,8 +9864,12 @@
       <c r="R159">
         <v>12.718644187577461</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S159" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5430689632040329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>42064</v>
       </c>
@@ -9249,7 +9897,7 @@
       <c r="I160">
         <v>-3.4321442426945126E-2</v>
       </c>
-      <c r="J160" s="3">
+      <c r="J160" s="4">
         <v>2.0499999999999998</v>
       </c>
       <c r="K160">
@@ -9276,8 +9924,12 @@
       <c r="R160">
         <v>12.702289774091273</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S160" s="3">
+        <f t="shared" si="2"/>
+        <v>2.541782274385505</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>42095</v>
       </c>
@@ -9305,7 +9957,7 @@
       <c r="I161">
         <v>1.1289621779694059E-2</v>
       </c>
-      <c r="J161" s="3">
+      <c r="J161" s="4">
         <v>2.0499999999999998</v>
       </c>
       <c r="K161">
@@ -9332,8 +9984,12 @@
       <c r="R161">
         <v>12.696344254373273</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S161" s="3">
+        <f t="shared" si="2"/>
+        <v>2.541314098040278</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42125</v>
       </c>
@@ -9361,7 +10017,7 @@
       <c r="I162">
         <v>3.2511687686911372E-2</v>
       </c>
-      <c r="J162" s="3">
+      <c r="J162" s="4">
         <v>2.0499999999999998</v>
       </c>
       <c r="K162">
@@ -9388,8 +10044,12 @@
       <c r="R162">
         <v>12.698167596181012</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S162" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5414576992893672</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42156</v>
       </c>
@@ -9417,7 +10077,7 @@
       <c r="I163">
         <v>-1.7993247600070816E-2</v>
       </c>
-      <c r="J163" s="3">
+      <c r="J163" s="4">
         <v>2.0499999999999998</v>
       </c>
       <c r="K163">
@@ -9444,8 +10104,12 @@
       <c r="R163">
         <v>12.696360847422058</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S163" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5413154049548994</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42186</v>
       </c>
@@ -9473,7 +10137,7 @@
       <c r="I164">
         <v>-5.8316358962438919E-2</v>
       </c>
-      <c r="J164" s="3">
+      <c r="J164" s="4">
         <v>2.0499999999999998</v>
       </c>
       <c r="K164">
@@ -9500,8 +10164,12 @@
       <c r="R164">
         <v>12.716080095586317</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S164" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5428673418322982</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42217</v>
       </c>
@@ -9529,7 +10197,7 @@
       <c r="I165">
         <v>-6.7694180057038089E-2</v>
       </c>
-      <c r="J165" s="3">
+      <c r="J165" s="4">
         <v>2.0499999999999998</v>
       </c>
       <c r="K165">
@@ -9556,8 +10224,12 @@
       <c r="R165">
         <v>12.701095369921758</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S165" s="3">
+        <f t="shared" si="2"/>
+        <v>2.541688239345401</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42248</v>
       </c>
@@ -9585,7 +10257,7 @@
       <c r="I166">
         <v>-4.9200473709731796E-3</v>
       </c>
-      <c r="J166" s="3">
+      <c r="J166" s="4">
         <v>2.25</v>
       </c>
       <c r="K166">
@@ -9612,8 +10284,12 @@
       <c r="R166">
         <v>12.699123905396354</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S166" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5415330072579931</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42278</v>
       </c>
@@ -9641,7 +10317,7 @@
       <c r="I167">
         <v>-5.6213722670968025E-3</v>
       </c>
-      <c r="J167" s="3">
+      <c r="J167" s="4">
         <v>2.25</v>
       </c>
       <c r="K167">
@@ -9668,8 +10344,12 @@
       <c r="R167">
         <v>12.710236239191392</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S167" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5424076719044266</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42309</v>
       </c>
@@ -9697,7 +10377,7 @@
       <c r="I168">
         <v>-6.0620188807607001E-2</v>
       </c>
-      <c r="J168" s="3">
+      <c r="J168" s="4">
         <v>2.25</v>
       </c>
       <c r="K168">
@@ -9724,8 +10404,12 @@
       <c r="R168">
         <v>12.719878073728918</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S168" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5431659724673659</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42339</v>
       </c>
@@ -9753,7 +10437,7 @@
       <c r="I169">
         <v>-5.9005849533695809E-2</v>
       </c>
-      <c r="J169" s="3">
+      <c r="J169" s="4">
         <v>2.5</v>
       </c>
       <c r="K169">
@@ -9780,8 +10464,12 @@
       <c r="R169">
         <v>12.774174233083848</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S169" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5474254947116237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42370</v>
       </c>
@@ -9809,7 +10497,7 @@
       <c r="I170">
         <v>-5.9706633863329195E-2</v>
       </c>
-      <c r="J170" s="3">
+      <c r="J170" s="4">
         <v>2.75</v>
       </c>
       <c r="K170">
@@ -9836,8 +10524,12 @@
       <c r="R170">
         <v>12.756280835000615</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S170" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5460237648195925</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42401</v>
       </c>
@@ -9865,7 +10557,7 @@
       <c r="I171">
         <v>2.3075368711750421E-2</v>
       </c>
-      <c r="J171" s="3">
+      <c r="J171" s="4">
         <v>3</v>
       </c>
       <c r="K171">
@@ -9892,8 +10584,12 @@
       <c r="R171">
         <v>12.751649112166358</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S171" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5456606053711579</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42430</v>
       </c>
@@ -9921,7 +10617,7 @@
       <c r="I172">
         <v>6.9242847555496922E-2</v>
       </c>
-      <c r="J172" s="3">
+      <c r="J172" s="4">
         <v>3</v>
       </c>
       <c r="K172">
@@ -9948,8 +10644,12 @@
       <c r="R172">
         <v>12.742747200930939</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S172" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5449622627637964</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42461</v>
       </c>
@@ -9977,7 +10677,7 @@
       <c r="I173">
         <v>3.1631333150928143E-2</v>
       </c>
-      <c r="J173" s="3">
+      <c r="J173" s="4">
         <v>3</v>
       </c>
       <c r="K173">
@@ -10004,8 +10704,12 @@
       <c r="R173">
         <v>12.749347967264221</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S173" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5454801304743357</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>42491</v>
       </c>
@@ -10033,7 +10737,7 @@
       <c r="I174">
         <v>3.9306200540045744E-2</v>
       </c>
-      <c r="J174" s="3">
+      <c r="J174" s="4">
         <v>3</v>
       </c>
       <c r="K174">
@@ -10060,8 +10764,12 @@
       <c r="R174">
         <v>12.760277149665445</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S174" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5463369978739805</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42522</v>
       </c>
@@ -10089,7 +10797,7 @@
       <c r="I175">
         <v>2.5618830791232838E-2</v>
       </c>
-      <c r="J175" s="3">
+      <c r="J175" s="4">
         <v>3</v>
       </c>
       <c r="K175">
@@ -10116,8 +10824,12 @@
       <c r="R175">
         <v>12.772970891679526</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S175" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5473312891634627</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42552</v>
       </c>
@@ -10145,7 +10857,7 @@
       <c r="I176">
         <v>-3.1663966717658809E-3</v>
       </c>
-      <c r="J176" s="3">
+      <c r="J176" s="4">
         <v>3</v>
       </c>
       <c r="K176">
@@ -10172,8 +10884,12 @@
       <c r="R176">
         <v>12.809338325470604</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S176" s="3">
+        <f t="shared" si="2"/>
+        <v>2.550174461605855</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42583</v>
       </c>
@@ -10201,7 +10917,7 @@
       <c r="I177">
         <v>4.1948397255797687E-3</v>
       </c>
-      <c r="J177" s="3">
+      <c r="J177" s="4">
         <v>3</v>
       </c>
       <c r="K177">
@@ -10228,8 +10944,12 @@
       <c r="R177">
         <v>12.801419781278689</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S177" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5495560851867549</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>42614</v>
       </c>
@@ -10257,7 +10977,7 @@
       <c r="I178">
         <v>6.9831564380251621E-4</v>
       </c>
-      <c r="J178" s="3">
+      <c r="J178" s="4">
         <v>3</v>
       </c>
       <c r="K178">
@@ -10284,8 +11004,12 @@
       <c r="R178">
         <v>12.801214803688023</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S178" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5495400729603577</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>42644</v>
       </c>
@@ -10313,7 +11037,7 @@
       <c r="I179">
         <v>3.2402902069459394E-2</v>
       </c>
-      <c r="J179" s="3">
+      <c r="J179" s="4">
         <v>3</v>
       </c>
       <c r="K179">
@@ -10340,8 +11064,12 @@
       <c r="R179">
         <v>12.803232417636481</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S179" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5496976716724249</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>42675</v>
       </c>
@@ -10369,7 +11097,7 @@
       <c r="I180">
         <v>-1.1248928030152427E-2</v>
       </c>
-      <c r="J180" s="3">
+      <c r="J180" s="4">
         <v>3</v>
       </c>
       <c r="K180">
@@ -10396,8 +11124,12 @@
       <c r="R180">
         <v>12.819078515161692</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S180" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5509345702165911</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>42705</v>
       </c>
@@ -10425,7 +11157,7 @@
       <c r="I181">
         <v>5.5549288569219257E-2</v>
       </c>
-      <c r="J181" s="3">
+      <c r="J181" s="4">
         <v>3</v>
       </c>
       <c r="K181">
@@ -10452,8 +11184,12 @@
       <c r="R181">
         <v>12.857660240843254</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S181" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5539397614197816</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42736</v>
       </c>
@@ -10481,7 +11217,7 @@
       <c r="I182">
         <v>3.8795029777958234E-2</v>
       </c>
-      <c r="J182" s="3">
+      <c r="J182" s="4">
         <v>3</v>
       </c>
       <c r="K182">
@@ -10508,8 +11244,12 @@
       <c r="R182">
         <v>12.847257391285941</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S182" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5531303559765015</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>42767</v>
       </c>
@@ -10537,7 +11277,7 @@
       <c r="I183">
         <v>4.6403228313609546E-3</v>
       </c>
-      <c r="J183" s="3">
+      <c r="J183" s="4">
         <v>3</v>
       </c>
       <c r="K183">
@@ -10564,8 +11304,12 @@
       <c r="R183">
         <v>12.840196737321602</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S183" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5525806203657395</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>42795</v>
       </c>
@@ -10593,7 +11337,7 @@
       <c r="I184">
         <v>-4.8506329708792428E-2</v>
       </c>
-      <c r="J184" s="3">
+      <c r="J184" s="4">
         <v>3</v>
       </c>
       <c r="K184">
@@ -10620,8 +11364,12 @@
       <c r="R184">
         <v>12.846016783667773</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S184" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5530337853634544</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>42826</v>
       </c>
@@ -10649,7 +11397,7 @@
       <c r="I185">
         <v>9.2606954209184522E-4</v>
       </c>
-      <c r="J185" s="3">
+      <c r="J185" s="4">
         <v>3</v>
       </c>
       <c r="K185">
@@ -10676,8 +11424,12 @@
       <c r="R185">
         <v>12.845712243556619</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S185" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5530100781142582</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>42856</v>
       </c>
@@ -10705,7 +11457,7 @@
       <c r="I186">
         <v>-2.0159371567150863E-2</v>
       </c>
-      <c r="J186" s="3">
+      <c r="J186" s="4">
         <v>2.75</v>
       </c>
       <c r="K186">
@@ -10732,8 +11484,12 @@
       <c r="R186">
         <v>12.860040792701025</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S186" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5541248908651752</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>42887</v>
       </c>
@@ -10761,7 +11517,7 @@
       <c r="I187">
         <v>-2.9915110618574658E-2</v>
       </c>
-      <c r="J187" s="3">
+      <c r="J187" s="4">
         <v>2.75</v>
       </c>
       <c r="K187">
@@ -10788,8 +11544,12 @@
       <c r="R187">
         <v>12.869884206064645</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S187" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5548900243697861</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>42917</v>
       </c>
@@ -10817,7 +11577,7 @@
       <c r="I188">
         <v>2.5910458266031E-2</v>
       </c>
-      <c r="J188" s="3">
+      <c r="J188" s="4">
         <v>2.5</v>
       </c>
       <c r="K188">
@@ -10844,8 +11604,12 @@
       <c r="R188">
         <v>12.891303961819911</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S188" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5565529725654867</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>42948</v>
       </c>
@@ -10873,7 +11637,7 @@
       <c r="I189">
         <v>2.5773138000479534E-2</v>
       </c>
-      <c r="J189" s="3">
+      <c r="J189" s="4">
         <v>2.5</v>
       </c>
       <c r="K189">
@@ -10900,8 +11664,12 @@
       <c r="R189">
         <v>12.887883481800813</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S189" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5562876050051901</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>42979</v>
       </c>
@@ -10929,7 +11697,7 @@
       <c r="I190">
         <v>2.8900764816515156E-2</v>
       </c>
-      <c r="J190" s="3">
+      <c r="J190" s="4">
         <v>2.25</v>
       </c>
       <c r="K190">
@@ -10956,8 +11724,12 @@
       <c r="R190">
         <v>12.90711510314966</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S190" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5577787176989037</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>43009</v>
       </c>
@@ -10985,7 +11757,7 @@
       <c r="I191">
         <v>1.3340877311645016E-2</v>
       </c>
-      <c r="J191" s="3">
+      <c r="J191" s="4">
         <v>2.25</v>
       </c>
       <c r="K191">
@@ -11012,8 +11784,12 @@
       <c r="R191">
         <v>12.914719694246298</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S191" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5583677224211598</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>43040</v>
       </c>
@@ -11041,7 +11817,7 @@
       <c r="I192">
         <v>4.0069726961990071E-2</v>
       </c>
-      <c r="J192" s="3">
+      <c r="J192" s="4">
         <v>2</v>
       </c>
       <c r="K192">
@@ -11068,8 +11844,12 @@
       <c r="R192">
         <v>12.929980745637391</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S192" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5595487036594857</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>43070</v>
       </c>
@@ -11097,7 +11877,7 @@
       <c r="I193">
         <v>1.4121929640483977E-2</v>
       </c>
-      <c r="J193" s="3">
+      <c r="J193" s="4">
         <v>2</v>
       </c>
       <c r="K193">
@@ -11124,8 +11904,12 @@
       <c r="R193">
         <v>12.969620525726477</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S193" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5626097400534928</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>43101</v>
       </c>
@@ -11153,7 +11937,7 @@
       <c r="I194">
         <v>5.7732248980111756E-2</v>
       </c>
-      <c r="J194" s="3">
+      <c r="J194" s="4">
         <v>1.75</v>
       </c>
       <c r="K194">
@@ -11180,8 +11964,12 @@
       <c r="R194">
         <v>12.971092485445686</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S194" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5627232265039348</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>43132</v>
       </c>
@@ -11209,7 +11997,7 @@
       <c r="I195">
         <v>-2.2010220322977503E-2</v>
       </c>
-      <c r="J195" s="3">
+      <c r="J195" s="4">
         <v>1.75</v>
       </c>
       <c r="K195">
@@ -11236,8 +12024,12 @@
       <c r="R195">
         <v>12.973460592378988</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S195" s="3">
+        <f t="shared" ref="S195:S208" si="3">LN(R195)</f>
+        <v>2.5629057778805397</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>43160</v>
       </c>
@@ -11265,7 +12057,7 @@
       <c r="I196">
         <v>-3.3478207599646481E-3</v>
       </c>
-      <c r="J196" s="3">
+      <c r="J196" s="4">
         <v>1.5</v>
       </c>
       <c r="K196">
@@ -11292,8 +12084,12 @@
       <c r="R196">
         <v>12.981077142567866</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S196" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5634926926224089</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>43191</v>
       </c>
@@ -11321,7 +12117,7 @@
       <c r="I197">
         <v>1.5368086303524819E-2</v>
       </c>
-      <c r="J197" s="3">
+      <c r="J197" s="4">
         <v>1.5</v>
       </c>
       <c r="K197">
@@ -11348,8 +12144,12 @@
       <c r="R197">
         <v>12.97234526943206</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S197" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5628198046058182</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>43221</v>
       </c>
@@ -11377,7 +12177,7 @@
       <c r="I198">
         <v>3.673143343639218E-2</v>
       </c>
-      <c r="J198" s="3">
+      <c r="J198" s="4">
         <v>1.5</v>
       </c>
       <c r="K198">
@@ -11404,8 +12204,12 @@
       <c r="R198">
         <v>12.978396034352217</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S198" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5632861315564806</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>43252</v>
       </c>
@@ -11433,7 +12237,7 @@
       <c r="I199">
         <v>-8.4661677494990428E-3</v>
       </c>
-      <c r="J199" s="3">
+      <c r="J199" s="4">
         <v>1.5</v>
       </c>
       <c r="K199">
@@ -11460,8 +12264,12 @@
       <c r="R199">
         <v>12.985478975084908</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S199" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5638317312334022</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>43282</v>
       </c>
@@ -11489,7 +12297,7 @@
       <c r="I200">
         <v>-1.3318561618507196E-2</v>
       </c>
-      <c r="J200" s="3">
+      <c r="J200" s="4">
         <v>1.5</v>
       </c>
       <c r="K200">
@@ -11516,8 +12324,12 @@
       <c r="R200">
         <v>13.005731507015385</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S200" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5653901454552632</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>43313</v>
       </c>
@@ -11545,7 +12357,7 @@
       <c r="I201">
         <v>-1.7106331776965966E-2</v>
       </c>
-      <c r="J201" s="3">
+      <c r="J201" s="4">
         <v>1.5</v>
       </c>
       <c r="K201">
@@ -11572,8 +12384,12 @@
       <c r="R201">
         <v>13.016395938247912</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S201" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5662097888031798</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>43344</v>
       </c>
@@ -11601,7 +12417,7 @@
       <c r="I202">
         <v>3.3999294051144879E-2</v>
       </c>
-      <c r="J202" s="3">
+      <c r="J202" s="4">
         <v>1.5</v>
       </c>
       <c r="K202">
@@ -11628,8 +12444,12 @@
       <c r="R202">
         <v>13.01584218436326</v>
       </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S202" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5661672451016257</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>43374</v>
       </c>
@@ -11657,7 +12477,7 @@
       <c r="I203">
         <v>7.6136442674616944E-3</v>
       </c>
-      <c r="J203" s="3">
+      <c r="J203" s="4">
         <v>1.5</v>
       </c>
       <c r="K203">
@@ -11684,8 +12504,12 @@
       <c r="R203">
         <v>13.027615931911946</v>
       </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S203" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5670714067761788</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>43405</v>
       </c>
@@ -11713,7 +12537,7 @@
       <c r="I204">
         <v>-9.03216017262638E-2</v>
       </c>
-      <c r="J204" s="3">
+      <c r="J204" s="4">
         <v>1.5</v>
       </c>
       <c r="K204">
@@ -11740,8 +12564,12 @@
       <c r="R204">
         <v>13.042573005570926</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S204" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5682188534123291</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>43435</v>
       </c>
@@ -11769,7 +12597,7 @@
       <c r="I205">
         <v>-5.0458822145295734E-2</v>
       </c>
-      <c r="J205" s="3">
+      <c r="J205" s="4">
         <v>1.5</v>
       </c>
       <c r="K205">
@@ -11796,8 +12624,12 @@
       <c r="R205">
         <v>13.079502789426231</v>
       </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S205" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5710463322657309</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>43466</v>
       </c>
@@ -11825,7 +12657,7 @@
       <c r="I206">
         <v>9.9853138148064957E-3</v>
       </c>
-      <c r="J206" s="3">
+      <c r="J206" s="4">
         <v>1.5</v>
       </c>
       <c r="K206">
@@ -11852,8 +12684,12 @@
       <c r="R206">
         <v>13.068557076081373</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S206" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5702091218539067</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>43497</v>
       </c>
@@ -11881,7 +12717,7 @@
       <c r="I207">
         <v>1.7113694184994976E-2</v>
       </c>
-      <c r="J207" s="3">
+      <c r="J207" s="4">
         <v>1.5</v>
       </c>
       <c r="K207">
@@ -11908,8 +12744,12 @@
       <c r="R207">
         <v>13.062417089971971</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S207" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5697391825257072</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>43525</v>
       </c>
@@ -11937,7 +12777,7 @@
       <c r="I208">
         <v>7.7042982160957507E-3</v>
       </c>
-      <c r="J208" s="3">
+      <c r="J208" s="4">
         <v>1.5</v>
       </c>
       <c r="K208">
@@ -11963,6 +12803,10 @@
       </c>
       <c r="R208">
         <v>13.083343118412529</v>
+      </c>
+      <c r="S208" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5713399034641702</v>
       </c>
     </row>
   </sheetData>
